--- a/biology/Botanique/Roseraie_de_Cologne/Roseraie_de_Cologne.xlsx
+++ b/biology/Botanique/Roseraie_de_Cologne/Roseraie_de_Cologne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La roseraie de Cologne (nom officiel : Rosengarten der Stadt Köln, Roseraie de la Ville de Cologne) est une roseraie située à Cologne en Allemagne à l'emplacement de l'ancien fortin X des fortifications de la ville dans le quartier de Neustadt-Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fortin n° X est construit de 1819 à 1825 pour renforcer les remparts médiévaux de Cologne. Ceux-ci sont démolis en 1881 et les différentes fortifications servent à divers usages. Elles sont sévèrement endommagées pendant la guerre de 1914-1918. En 1919, le conseil municipal prend la décision de démolir le fortin X et de remanier les lieux selon le projet de Fritz Encke[1]. Des rangées de platanes sont plantées le long des murs d'enceinte et les travaux qui durent jusqu'en 1925 donnent naissance à une roseraie. Il construit aussi au nord un petit pavillon de roses rappelant une pergola et plante des arbres dans les anciennes douves[2]. La roseraie est bombardée à la fin de la Seconde Guerre mondiale et reconstruite dans les années 1960.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fortin n° X est construit de 1819 à 1825 pour renforcer les remparts médiévaux de Cologne. Ceux-ci sont démolis en 1881 et les différentes fortifications servent à divers usages. Elles sont sévèrement endommagées pendant la guerre de 1914-1918. En 1919, le conseil municipal prend la décision de démolir le fortin X et de remanier les lieux selon le projet de Fritz Encke. Des rangées de platanes sont plantées le long des murs d'enceinte et les travaux qui durent jusqu'en 1925 donnent naissance à une roseraie. Il construit aussi au nord un petit pavillon de roses rappelant une pergola et plante des arbres dans les anciennes douves. La roseraie est bombardée à la fin de la Seconde Guerre mondiale et reconstruite dans les années 1960.
 Le 19 juin 2008, le parc alentour et la roseraie de Cologne sont intégrés dans le nouveau parc Hilde-Domin, baptisé en l'honneur de la cantatrice Hilde Domin, née en 1909 près du parc.
 La roseraie est restaurée en 2012-2013.
 </t>
@@ -544,9 +558,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La roseraie présente plus de soixante-dix variétés de roses modernes issues pour la plupart de la maison Kordes, et faisant partie surtout des floribundas et des hybrides de thé[3]. Parmi celles-ci :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La roseraie présente plus de soixante-dix variétés de roses modernes issues pour la plupart de la maison Kordes, et faisant partie surtout des floribundas et des hybrides de thé. Parmi celles-ci :
 'Aachener Dom' (hybride de thé)
 'Alabaster' (floribunda)
 ‘Ave Maria’ (hybride de thé)
